--- a/homework6/testplan.xlsx
+++ b/homework6/testplan.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cory-PC\Desktop\homework6\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41F4B0F-B9EF-4F20-A7CC-0ADB30AA6278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="1560" yWindow="1410" windowWidth="17670" windowHeight="10185" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,18 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t xml:space="preserve">Test case</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected Outcomes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Results</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
+  <si>
+    <t>Test case</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Expected Outcomes</t>
+  </si>
+  <si>
+    <t>Results</t>
   </si>
   <si>
     <r>
@@ -45,99 +50,214 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="6"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">with exact inputs as if another person would test your program by following your test cases.</t>
+      <t>with exact inputs as if another person would test your program by following your test cases.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">What outcomes do you expect if your program passes this test case?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leave this column blank for Homework6b. You will fill in when you actually test your program later.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test 1</t>
-  </si>
-  <si>
+    <t>What outcomes do you expect if your program passes this test case?</t>
+  </si>
+  <si>
+    <t>Leave this column blank for Homework6b. You will fill in when you actually test your program later.</t>
+  </si>
+  <si>
+    <t>Test 1</t>
+  </si>
+  <si>
+    <t>Menu is displayed.</t>
+  </si>
+  <si>
+    <t>Test 2</t>
+  </si>
+  <si>
+    <t>Select the print-all option.</t>
+  </si>
+  <si>
+    <t>The program displays a message that the list is empty.</t>
+  </si>
+  <si>
+    <t>Test 3</t>
+  </si>
+  <si>
+    <t>The program displays an account with the following information:                                     Account#: 113344
+Name: John Smith
+Address:
+1111 Dole St.,
+Honolulu, HI 96822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input "findd" for option </t>
+  </si>
+  <si>
+    <t>The program displays invalid input message and reprompts</t>
+  </si>
+  <si>
+    <t>Input "fin" for option</t>
+  </si>
+  <si>
+    <t>The program prompts for account number</t>
+  </si>
+  <si>
+    <t>Input "1000"</t>
+  </si>
+  <si>
+    <t>The program states no account is found and returns to the menu</t>
+  </si>
+  <si>
+    <t>Input "f"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select the Add Option and add the following information:
+</t>
+    </r>
     <r>
       <rPr>
+        <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
+      <t>Account#: 113344
+Name: John Smith
+Address:
+1111 Dole St.,
+Honolulu, HI 96822#</t>
+    </r>
+  </si>
+  <si>
+    <t>Input "113344"</t>
+  </si>
+  <si>
+    <t>Input "printa"</t>
+  </si>
+  <si>
+    <t>Input "printalll"</t>
+  </si>
+  <si>
+    <t>Input "addd"</t>
+  </si>
+  <si>
+    <t>Input "a"</t>
+  </si>
+  <si>
+    <t>The program gives invalid number error and reprompts</t>
+  </si>
+  <si>
+    <t>add the following information:
+Account#: 113355
+Name: Cory Parker
+Address:
+Beach Street,
+Honolulu                                            HI 96707#</t>
+  </si>
+  <si>
+    <t>The new record is added and confirmation is displayed to the user and is back to menu</t>
+  </si>
+  <si>
+    <t>Input "-1"</t>
+  </si>
+  <si>
+    <t>Input "0"</t>
+  </si>
+  <si>
+    <t>Input "dellete"</t>
+  </si>
+  <si>
+    <t>Input "de"</t>
+  </si>
+  <si>
+    <t>The program prompts for account number to delete</t>
+  </si>
+  <si>
+    <t>The program displays record not found message</t>
+  </si>
+  <si>
+    <t>Input "d"</t>
+  </si>
+  <si>
+    <t>Deletes and confirms deletion of account 113344, returns to menu</t>
+  </si>
+  <si>
+    <t>Input "pri"</t>
+  </si>
+  <si>
+    <t>The program displays an account with the following info                         Account#: 113355
+Name: Cory Parker
+Address:
+Beach Street,
+Honolulu                                            HI 96707</t>
+  </si>
+  <si>
+    <t>Input "qquit"</t>
+  </si>
+  <si>
+    <t>Input "quit"</t>
+  </si>
+  <si>
+    <t>The program exits without crash</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Start the program by typing the program name with no arguments:
 </t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">./project</t>
+      <t>./project</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Menu is displayed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select the print-all option.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The program displays a message that the list is empty.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test 3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Select the Add Option and add the following information:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Account#: 113344
-Name: John Smith
-Address:
-1111 Dole St.,
-Honolulu, HI 96822</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">The new record is added and confirmation is displayed to the user. </t>
+    <t>Start the program by typing the program name with arguments:
+./project f</t>
+  </si>
+  <si>
+    <t>Gives an invalid argument error and exits without crash</t>
+  </si>
+  <si>
+    <t>Start the program by typing the program name with arguments:
+./project debug debug</t>
+  </si>
+  <si>
+    <t>Gives a too many arguments error and exits without crash</t>
+  </si>
+  <si>
+    <t>Start the program by typing the program name with arguments:
+./project debug</t>
+  </si>
+  <si>
+    <t>The program displays a message that the list is empty and includes printAllRecords debug call, menu debug call</t>
+  </si>
+  <si>
+    <t>Input "printall"</t>
+  </si>
+  <si>
+    <t>Input "q"</t>
+  </si>
+  <si>
+    <t>Quits the program without crash, writefile debug call is shown, cleanup debug call is shown.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enters menu with debug info shown, readfile debug call is shown. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -145,22 +265,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -173,7 +278,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="6"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -207,80 +312,55 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -339,32 +419,340 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="50.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="2" width="32.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="21.8"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
+    <col min="1" max="1" width="9.42578125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="32.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="3" customWidth="1"/>
+    <col min="5" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -377,8 +765,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="25.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3"/>
+    <row r="2" spans="1:4" ht="25.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
@@ -389,47 +777,254 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:4" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="50.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="100.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="100.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="B27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="B28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="B29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="B30" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/homework6/testplan.xlsx
+++ b/homework6/testplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cory-PC\Desktop\homework6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41F4B0F-B9EF-4F20-A7CC-0ADB30AA6278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB23FCFB-ED4C-4D4D-AA95-20A9953E3FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1410" windowWidth="17670" windowHeight="10185" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="77">
   <si>
     <t>Test case</t>
   </si>
@@ -251,6 +251,75 @@
   </si>
   <si>
     <t xml:space="preserve">Enters menu with debug info shown, readfile debug call is shown. </t>
+  </si>
+  <si>
+    <t>Menu is displayed correctly</t>
+  </si>
+  <si>
+    <t>states no valid records are contained to print</t>
+  </si>
+  <si>
+    <t>states "add of account# 113344 sucessful" and returns to menu</t>
+  </si>
+  <si>
+    <t>prints out the correct record and redisplays menu</t>
+  </si>
+  <si>
+    <t>displays invalid input message and redisplays menu</t>
+  </si>
+  <si>
+    <t>prompts for account number</t>
+  </si>
+  <si>
+    <t>displays "account # of '1000' in database does not exist", redisplays menu</t>
+  </si>
+  <si>
+    <t>states correct record was found, displays account#, name, address, and redisplays menu</t>
+  </si>
+  <si>
+    <t>displays correct record with account#, name, address, and redisplays menu</t>
+  </si>
+  <si>
+    <t>displays the proper invalid message and repropmpts</t>
+  </si>
+  <si>
+    <t>asks for account number to add</t>
+  </si>
+  <si>
+    <t>gives error message, reprompts for account number</t>
+  </si>
+  <si>
+    <t>message confirms record was added, returns to menu</t>
+  </si>
+  <si>
+    <t>asks for account number to delete</t>
+  </si>
+  <si>
+    <t>*Step not actually needed, previous step gave error message but is not supposed to return to menu, is still asking for account number to be deleted. (skip #22, go to #23)</t>
+  </si>
+  <si>
+    <t>confirmed 113344 was deleted, redisplays menu</t>
+  </si>
+  <si>
+    <t>prints out all records (only 1 record remains) and redisplays menu</t>
+  </si>
+  <si>
+    <t>quits properly without crash</t>
+  </si>
+  <si>
+    <t>displays "incorrect argument given" error and exits without crash</t>
+  </si>
+  <si>
+    <t>displays "too many arguments" error and exits without crash</t>
+  </si>
+  <si>
+    <t>activates debug mode, shows proper readfile call and menu call, displays menu</t>
+  </si>
+  <si>
+    <t>shows proper clean_stdin, and printallrecord call. No records found error shown, shows menu debug call, and displays menu</t>
+  </si>
+  <si>
+    <t>debug info for writefile and cleanup shown, quits properly without crash</t>
   </si>
 </sst>
 </file>
@@ -340,9 +409,6 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -354,6 +420,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -739,283 +808,370 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C33" sqref="C32:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="2" customWidth="1"/>
-    <col min="2" max="3" width="32.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="32.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="2" customWidth="1"/>
     <col min="5" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="25.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="100.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
+      <c r="D6" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="D7" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
+      <c r="D8" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="D9" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D10" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="D11" s="2" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B13" s="3" t="s">
+      <c r="D12" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
+      <c r="D13" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="D14" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B16" s="3" t="s">
+      <c r="D15" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B17" s="3" t="s">
+      <c r="D16" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="B18" s="3" t="s">
+      <c r="D17" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="3" t="s">
+      <c r="D18" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B20" s="3" t="s">
+      <c r="D19" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B21" s="3" t="s">
+      <c r="D20" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B22" s="3" t="s">
+      <c r="D21" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B23" s="3" t="s">
+      <c r="D22" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="B24" s="3" t="s">
+      <c r="D23" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B25" s="3" t="s">
+      <c r="D24" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B26" s="3" t="s">
+      <c r="D25" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="B27" s="3" t="s">
+      <c r="D26" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="B28" s="3" t="s">
+      <c r="D27" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="B29" s="3" t="s">
+      <c r="D28" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="30" spans="2:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="B30" s="3" t="s">
+      <c r="D29" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="31" spans="2:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B31" s="3" t="s">
+      <c r="D30" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>52</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
